--- a/Fa_data/PickLinePos_time.xlsx
+++ b/Fa_data/PickLinePos_time.xlsx
@@ -474,7 +474,7 @@
         <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>127</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>84</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>144</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>209</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>154</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>119</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         <v>47</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>238</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>240</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>106</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>145</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>322</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>306</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>163</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>232</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>216</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>72</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>153</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>35</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>527</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -916,7 +916,7 @@
         <v>990</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>144</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>26</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>140</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>117</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>236</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>207</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>118</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>51</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>144</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1171,7 +1171,7 @@
         <v>19</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>75</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>567</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>34</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>76</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>334</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>337</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1324,7 +1324,7 @@
         <v>216</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>76</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>339</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1409,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>56</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1460,7 +1460,7 @@
         <v>128</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>78</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1528,7 +1528,7 @@
         <v>455</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>183</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>184</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1596,7 +1596,7 @@
         <v>241</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>150</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>18</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>358</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>157</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>66</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>48</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>224</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>220</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>57</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1800,7 +1800,7 @@
         <v>127</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>64</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>234</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>166</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>82</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>273</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1970,7 +1970,7 @@
         <v>174</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>211</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>185</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>168</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>134</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>56</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>142</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>556</v>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>272</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>430</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>30</v>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>165</v>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>42</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>124</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>30</v>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>274</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>356</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>235</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>90</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>48</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>170</v>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -2412,7 +2412,7 @@
         <v>43</v>
       </c>
       <c r="E116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>30</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>183</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="E119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>43</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>320</v>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>422</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>47</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>83</v>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>61</v>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>41</v>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>117</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>316</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>9</v>
       </c>
       <c r="E134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>119</v>
       </c>
       <c r="E135" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>560</v>
       </c>
       <c r="E136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>483</v>
       </c>
       <c r="E137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>52</v>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>702</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>599</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="E141" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>40</v>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>97</v>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2905,7 +2905,7 @@
         <v>38</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>418</v>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>27</v>
       </c>
       <c r="E147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>167</v>
       </c>
       <c r="E148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>161</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>15</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>87</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>574</v>
       </c>
       <c r="E152" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>929</v>
       </c>
       <c r="E153" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>384</v>
       </c>
       <c r="E154" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>208</v>
       </c>
       <c r="E155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>45</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>211</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>67</v>
       </c>
       <c r="E158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>36</v>
       </c>
       <c r="E159" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>71</v>
       </c>
       <c r="E160" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>68</v>
       </c>
       <c r="E161" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>48</v>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>26</v>
       </c>
       <c r="E163" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>385</v>
       </c>
       <c r="E164" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>232</v>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>165</v>
       </c>
       <c r="E166" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>746</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>125</v>
       </c>
       <c r="E169" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>243</v>
       </c>
       <c r="E170" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>202</v>
       </c>
       <c r="E171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>98</v>
       </c>
       <c r="E172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>70</v>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>256</v>
       </c>
       <c r="E174" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>47</v>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>98</v>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>552</v>
       </c>
       <c r="E178" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>174</v>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>101</v>
       </c>
       <c r="E180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>516</v>
       </c>
       <c r="E181" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>107</v>
       </c>
       <c r="E182" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>107</v>
       </c>
       <c r="E183" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>11</v>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>99</v>
       </c>
       <c r="E186" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>199</v>
       </c>
       <c r="E187" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>363</v>
       </c>
       <c r="E189" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>527</v>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>239</v>
       </c>
       <c r="E191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>34</v>
       </c>
       <c r="E192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>107</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>36</v>
       </c>
       <c r="E194" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>107</v>
       </c>
       <c r="E195" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>156</v>
       </c>
       <c r="E196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>53</v>
       </c>
       <c r="E197" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>100</v>
       </c>
       <c r="E198" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>108</v>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>61</v>
       </c>
       <c r="E200" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>180</v>
       </c>
       <c r="E201" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>128</v>
       </c>
       <c r="E202" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>52</v>
       </c>
       <c r="E204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -3942,7 +3942,7 @@
         <v>83</v>
       </c>
       <c r="E206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>232</v>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>69</v>
       </c>
       <c r="E208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>21</v>
       </c>
       <c r="E209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -4027,7 +4027,7 @@
         <v>65</v>
       </c>
       <c r="E211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>163</v>
       </c>
       <c r="E212" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>42</v>
       </c>
       <c r="E213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>118</v>
       </c>
       <c r="E214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>128</v>
       </c>
       <c r="E215" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>103</v>
       </c>
       <c r="E216" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -4146,7 +4146,7 @@
         <v>54</v>
       </c>
       <c r="E218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>82</v>
       </c>
       <c r="E219" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -4197,7 +4197,7 @@
         <v>143</v>
       </c>
       <c r="E221" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>116</v>
       </c>
       <c r="E222" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>240</v>
       </c>
       <c r="E223" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>201</v>
       </c>
       <c r="E224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>286</v>
       </c>
       <c r="E225" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>402</v>
       </c>
       <c r="E226" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>24</v>
       </c>
       <c r="E228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>314</v>
       </c>
       <c r="E229" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -4367,7 +4367,7 @@
         <v>21</v>
       </c>
       <c r="E231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>178</v>
       </c>
       <c r="E232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>368</v>
       </c>
       <c r="E233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>56</v>
       </c>
       <c r="E234" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>87</v>
       </c>
       <c r="E235" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>122</v>
       </c>
       <c r="E236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>47</v>
       </c>
       <c r="E237" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>216</v>
       </c>
       <c r="E239" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>12</v>
       </c>
       <c r="E240" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>201</v>
       </c>
       <c r="E241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
